--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amimoto.CDL_WJP\Documents\MATLAB\Jenkins_Sample_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3500D6-B8D8-44BA-9A32-C8A09BD0579D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B994A59-8EAD-49B2-A4AF-CF0DAC3031E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{ECD6CD99-FCC0-46FC-BA0A-09DD303ED83A}"/>
+    <workbookView xWindow="5475" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{E1649866-4774-4B16-98C2-A6D9966D16B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE865F4B-1B1D-437D-82B9-A43BD5B28C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005A975-FB94-4F4D-BE80-8ADC63745FA2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
